--- a/Slovicka/Materialy k Teradate.xlsx
+++ b/Slovicka/Materialy k Teradate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Materialy k Teradate</t>
   </si>
@@ -45,6 +45,81 @@
   </si>
   <si>
     <t>prielom(nečakaný objav);pokrok</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>zmierniť;utíšiť;uľahčiť</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>zvýšiť;zväčšiť;vystupňovať</t>
+  </si>
+  <si>
+    <t>paves</t>
+  </si>
+  <si>
+    <t>vydláždiť</t>
+  </si>
+  <si>
+    <t>paves the way to success</t>
+  </si>
+  <si>
+    <t>dláždi cestu k úspechu</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>postrehy;náhľad</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>aktívum;majetok</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>hmatateľný;hmotný</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>objatie;objímať;zahrnúť;obsahovať</t>
+  </si>
+  <si>
+    <t>ˈbreɪkθruː</t>
+  </si>
+  <si>
+    <t>ˈmɪtɪɡeɪt</t>
+  </si>
+  <si>
+    <t>ɪnˈhɑːns</t>
+  </si>
+  <si>
+    <t>peɪvz</t>
+  </si>
+  <si>
+    <t>peɪvz ðə ˈweɪ tu səkˈses</t>
+  </si>
+  <si>
+    <t>ˈɪnsaɪts</t>
+  </si>
+  <si>
+    <t>ˈæset</t>
+  </si>
+  <si>
+    <t>ˈtændʒəbl̩</t>
+  </si>
+  <si>
+    <t>ɪmˈbreɪs</t>
   </si>
 </sst>
 </file>
@@ -81,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -363,16 +439,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -398,11 +475,102 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Slovicka/Materialy k Teradate.xlsx
+++ b/Slovicka/Materialy k Teradate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Materialy k Teradate</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>ɪmˈbreɪs</t>
+  </si>
+  <si>
+    <t>pillars</t>
+  </si>
+  <si>
+    <t>stĺp;opora</t>
+  </si>
+  <si>
+    <t>ˈpɪləz</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +582,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
